--- a/mktsales.xlsx
+++ b/mktsales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -89,69 +89,6 @@
   </x:si>
   <x:si>
     <x:t>User should be able to validate that a New Campaign is created</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>View Campaign</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Click on the Campaign tab,  and select a Campaign </x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Campaign Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Campaign name to View the Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the Campaign Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Edit Campaign</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Campaign tab,  and click on existing Campaign to modify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is navigated to the Campaign Details page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that the Campaign is edited</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_4.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Delete Campaign</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Campaign tab,  and select the existing  Campaign to delete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on to the Delete to Delete the Campaign</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Campaign</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Confirm / OK to delete the  Campaign</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate the Campaign is deleted</x:t>
   </x:si>
   <x:si>
     <x:t>New Account</x:t>
@@ -295,8 +232,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K18" totalsRowShown="0">
-  <x:autoFilter ref="A1:K18"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K10" totalsRowShown="0">
+  <x:autoFilter ref="A1:K10"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -602,7 +539,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K18"/>
+  <x:dimension ref="A1:K10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -610,12 +547,12 @@
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="18.130625000000002" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="16.270625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="113.270625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="128.840625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="95.130625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="61.270625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
@@ -725,13 +662,13 @@
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
         <x:v>25</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>27</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>14</x:v>
@@ -741,10 +678,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s"/>
       <x:c r="J5" s="0" t="s"/>
@@ -755,42 +692,38 @@
       <x:c r="B6" s="0" t="s"/>
       <x:c r="C6" s="0" t="s"/>
       <x:c r="D6" s="0" t="s"/>
-      <x:c r="E6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
       <x:c r="F6" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s"/>
       <x:c r="J6" s="0" t="s"/>
       <x:c r="K6" s="0" t="s"/>
     </x:row>
     <x:row r="7" spans="1:11">
-      <x:c r="A7" s="0" t="s">
+      <x:c r="A7" s="0" t="s"/>
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
+      <x:c r="D7" s="0" t="s"/>
+      <x:c r="E7" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="H7" s="0" t="s">
         <x:v>33</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s"/>
-      <x:c r="F7" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>36</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
@@ -802,16 +735,16 @@
       <x:c r="C8" s="0" t="s"/>
       <x:c r="D8" s="0" t="s"/>
       <x:c r="E8" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
@@ -822,214 +755,40 @@
       <x:c r="B9" s="0" t="s"/>
       <x:c r="C9" s="0" t="s"/>
       <x:c r="D9" s="0" t="s"/>
-      <x:c r="E9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
       <x:c r="K9" s="0" t="s"/>
     </x:row>
     <x:row r="10" spans="1:11">
-      <x:c r="A10" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
+      <x:c r="A10" s="0" t="s"/>
+      <x:c r="B10" s="0" t="s"/>
+      <x:c r="C10" s="0" t="s"/>
+      <x:c r="D10" s="0" t="s"/>
       <x:c r="E10" s="0" t="s"/>
       <x:c r="F10" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
       <x:c r="K10" s="0" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:11">
-      <x:c r="A11" s="0" t="s"/>
-      <x:c r="B11" s="0" t="s"/>
-      <x:c r="C11" s="0" t="s"/>
-      <x:c r="D11" s="0" t="s"/>
-      <x:c r="E11" s="0" t="s"/>
-      <x:c r="F11" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="I11" s="0" t="s"/>
-      <x:c r="J11" s="0" t="s"/>
-      <x:c r="K11" s="0" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:11">
-      <x:c r="A12" s="0" t="s"/>
-      <x:c r="B12" s="0" t="s"/>
-      <x:c r="C12" s="0" t="s"/>
-      <x:c r="D12" s="0" t="s"/>
-      <x:c r="E12" s="0" t="s"/>
-      <x:c r="F12" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="I12" s="0" t="s"/>
-      <x:c r="J12" s="0" t="s"/>
-      <x:c r="K12" s="0" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:11">
-      <x:c r="A13" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s"/>
-      <x:c r="F13" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G13" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="H13" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="I13" s="0" t="s"/>
-      <x:c r="J13" s="0" t="s"/>
-      <x:c r="K13" s="0" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:11">
-      <x:c r="A14" s="0" t="s"/>
-      <x:c r="B14" s="0" t="s"/>
-      <x:c r="C14" s="0" t="s"/>
-      <x:c r="D14" s="0" t="s"/>
-      <x:c r="E14" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="I14" s="0" t="s"/>
-      <x:c r="J14" s="0" t="s"/>
-      <x:c r="K14" s="0" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:11">
-      <x:c r="A15" s="0" t="s"/>
-      <x:c r="B15" s="0" t="s"/>
-      <x:c r="C15" s="0" t="s"/>
-      <x:c r="D15" s="0" t="s"/>
-      <x:c r="E15" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="F15" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="I15" s="0" t="s"/>
-      <x:c r="J15" s="0" t="s"/>
-      <x:c r="K15" s="0" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:11">
-      <x:c r="A16" s="0" t="s"/>
-      <x:c r="B16" s="0" t="s"/>
-      <x:c r="C16" s="0" t="s"/>
-      <x:c r="D16" s="0" t="s"/>
-      <x:c r="E16" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="F16" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="G16" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="H16" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="I16" s="0" t="s"/>
-      <x:c r="J16" s="0" t="s"/>
-      <x:c r="K16" s="0" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:11">
-      <x:c r="A17" s="0" t="s"/>
-      <x:c r="B17" s="0" t="s"/>
-      <x:c r="C17" s="0" t="s"/>
-      <x:c r="D17" s="0" t="s"/>
-      <x:c r="E17" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="F17" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="I17" s="0" t="s"/>
-      <x:c r="J17" s="0" t="s"/>
-      <x:c r="K17" s="0" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:11">
-      <x:c r="A18" s="0" t="s"/>
-      <x:c r="B18" s="0" t="s"/>
-      <x:c r="C18" s="0" t="s"/>
-      <x:c r="D18" s="0" t="s"/>
-      <x:c r="E18" s="0" t="s"/>
-      <x:c r="F18" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="G18" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="I18" s="0" t="s"/>
-      <x:c r="J18" s="0" t="s"/>
-      <x:c r="K18" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
